--- a/2732018 - Data Visualization/Proyek1/src/Excel/MyFirstExcel.xlsx
+++ b/2732018 - Data Visualization/Proyek1/src/Excel/MyFirstExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Datatype</t>
   </si>
@@ -411,35 +411,35 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
